--- a/Data/E2.xlsx
+++ b/Data/E2.xlsx
@@ -9,21 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
-    <sheet name="Fundamentals" sheetId="1" r:id="rId2"/>
+    <sheet name="Fundamentals" sheetId="9" r:id="rId2"/>
     <sheet name="Load" sheetId="3" r:id="rId3"/>
     <sheet name="MWP" sheetId="8" r:id="rId4"/>
-    <sheet name="Generators_FuelMix" sheetId="4" r:id="rId5"/>
-    <sheet name="Generators_Other" sheetId="5" r:id="rId6"/>
-    <sheet name="Generators_Categories" sheetId="6" r:id="rId7"/>
+    <sheet name="Generators_FuelMix" sheetId="10" r:id="rId5"/>
+    <sheet name="Generators_Other" sheetId="11" r:id="rId6"/>
+    <sheet name="Generators_Categories" sheetId="12" r:id="rId7"/>
     <sheet name="HourlyVariation" sheetId="7" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
   <si>
     <t>Coal</t>
   </si>
@@ -42,9 +39,6 @@
     <t>NatGas</t>
   </si>
   <si>
-    <t>Waste</t>
-  </si>
-  <si>
     <t>FuelPrice</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>id4</t>
   </si>
   <si>
-    <t>id5</t>
-  </si>
-  <si>
     <t>GeneratingCapacity</t>
   </si>
   <si>
@@ -168,40 +159,55 @@
     <t>Load/Load</t>
   </si>
   <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>CapVariation/h/hvt</t>
+  </si>
+  <si>
+    <t>LoadVariation</t>
+  </si>
+  <si>
+    <t>LoadVariation/l</t>
+  </si>
+  <si>
+    <t>LoadVariation/h</t>
+  </si>
+  <si>
+    <t>LoadVariation/LoadVariation</t>
+  </si>
+  <si>
+    <t>Coefficient in [0,1]. Sums to 1 over hours (h).</t>
+  </si>
+  <si>
+    <t>CapVariation</t>
+  </si>
+  <si>
+    <t>Coefficient in [0,1]. Scales hourly generation capacity compared to max.</t>
+  </si>
+  <si>
+    <t>MWP_LoadShedding</t>
+  </si>
+  <si>
+    <t>BioMass</t>
+  </si>
+  <si>
     <t>id2hvt/id</t>
   </si>
   <si>
     <t>id2hvt/hvt</t>
   </si>
   <si>
-    <t>CapVariation/h/hvt</t>
-  </si>
-  <si>
-    <t>LoadVariation</t>
-  </si>
-  <si>
-    <t>LoadVariation/l</t>
-  </si>
-  <si>
-    <t>LoadVariation/h</t>
-  </si>
-  <si>
-    <t>LoadVariation/LoadVariation</t>
-  </si>
-  <si>
-    <t>Coefficient in [0,1]. Sums to 1 over hours (h).</t>
-  </si>
-  <si>
-    <t>CapVariation</t>
-  </si>
-  <si>
-    <t>Coefficient in [0,1]. Scales hourly generation capacity compared to max.</t>
-  </si>
-  <si>
-    <t>MWP_LoadShedding</t>
-  </si>
-  <si>
-    <t>BioMass</t>
+    <t>FOM/id</t>
+  </si>
+  <si>
+    <t>FOM/FOM</t>
+  </si>
+  <si>
+    <t>FOM</t>
+  </si>
+  <si>
+    <t>( 1000 EUR / (GJ/h generating capacity) ) / year</t>
   </si>
 </sst>
 </file>
@@ -267,35 +273,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Log"/>
-      <sheetName val="Fundamentals"/>
-      <sheetName val="Load"/>
-      <sheetName val="Generators_FuelMix"/>
-      <sheetName val="Generators_Other"/>
-      <sheetName val="Generators_Categories"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="B2">
-            <v>100</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -561,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,95 +551,103 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -673,10 +658,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,25 +676,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -723,16 +708,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>9.4370000000000009E-2</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>35.513338652552946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -746,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>5.7000000000000002E-2</v>
@@ -754,70 +739,20 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1">
-        <v>6.9963568377391443</v>
+        <v>10.335570469798657</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.3422818791946308E-2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>4.2500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -829,7 +764,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,30 +778,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>400</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -877,7 +812,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -888,7 +823,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -899,7 +834,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -918,15 +853,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1">
         <v>25</v>
@@ -939,46 +874,41 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>1.35</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -986,19 +916,16 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1006,13 +933,10 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1021,32 +945,9 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1057,10 +958,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,93 +972,108 @@
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
       <c r="D1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
-        <f>[1]Load!B$2*0.3</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <f>31000/(1000*3.6)</f>
+        <v>8.6111111111111107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
-        <f>[1]Load!B$2*0.4</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <f>29300/(1000*3.6)</f>
+        <v>8.1388888888888893</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <f>[1]Load!B$2*0.25</f>
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <f>28800/(1000*3.6)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <f>[1]Load!B$2*0.175</f>
-        <v>17.5</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <f>[1]Load!B$2*0.18</f>
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <f>50000/(1000*3.6)</f>
+        <v>13.888888888888889</v>
       </c>
     </row>
   </sheetData>
@@ -1168,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,86 +1098,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1271,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,18 +1184,21 @@
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1303,8 +1208,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1314,8 +1222,11 @@
       <c r="C3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1325,8 +1236,11 @@
       <c r="C4">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1335,6 +1249,9 @@
       </c>
       <c r="C5">
         <v>0.8</v>
+      </c>
+      <c r="D5">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/E2.xlsx
+++ b/Data/E2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -150,12 +150,6 @@
     <t>GJ input / GJ output</t>
   </si>
   <si>
-    <t>Load/l</t>
-  </si>
-  <si>
-    <t>l1</t>
-  </si>
-  <si>
     <t>Load/Load</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>LoadVariation</t>
   </si>
   <si>
-    <t>LoadVariation/l</t>
-  </si>
-  <si>
     <t>LoadVariation/h</t>
   </si>
   <si>
@@ -208,6 +199,15 @@
   </si>
   <si>
     <t>( 1000 EUR / (GJ/h generating capacity) ) / year</t>
+  </si>
+  <si>
+    <t>Load/c</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>LoadVariation/c</t>
   </si>
 </sst>
 </file>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,26 +628,26 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -739,13 +739,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1">
         <v>10.335570469798657</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -764,7 +764,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,30 +778,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>400</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -861,7 +861,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B1">
         <v>25</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1104,10 +1104,10 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1175,7 +1175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1186,7 +1186,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
@@ -1195,7 +1195,7 @@
         <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/Data/E2.xlsx
+++ b/Data/E2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -764,7 +764,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,7 +961,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,9 +1175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
